--- a/datos.xlsx
+++ b/datos.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\tarea_final\Red-black-tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DC8ED6-09B8-4FFB-93E0-176A1A6FF1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73AFDD-615B-43DA-8F91-A8DB62ED6B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="BreveExp" sheetId="2" r:id="rId1"/>
+    <sheet name="ExpA1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,97 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
-  <si>
-    <t>1.09112e+04</t>
-  </si>
-  <si>
-    <t>1.23600e+02</t>
-  </si>
-  <si>
-    <t>8.70000e+01</t>
-  </si>
-  <si>
-    <t>2.25286e+04</t>
-  </si>
-  <si>
-    <t>2.17100e+02</t>
-  </si>
-  <si>
-    <t>1.63700e+02</t>
-  </si>
-  <si>
-    <t>3.46184e+04</t>
-  </si>
-  <si>
-    <t>3.71900e+02</t>
-  </si>
-  <si>
-    <t>2.37900e+02</t>
-  </si>
-  <si>
-    <t>4.98464e+04</t>
-  </si>
-  <si>
-    <t>6.08900e+02</t>
-  </si>
-  <si>
-    <t>5.75100e+02</t>
-  </si>
-  <si>
-    <t>5.85519e+04</t>
-  </si>
-  <si>
-    <t>4.83000e+02</t>
-  </si>
-  <si>
-    <t>3.70000e+02</t>
-  </si>
-  <si>
-    <t>6.44667e+04</t>
-  </si>
-  <si>
-    <t>5.97700e+02</t>
-  </si>
-  <si>
-    <t>4.64600e+02</t>
-  </si>
-  <si>
-    <t>7.55112e+04</t>
-  </si>
-  <si>
-    <t>6.74000e+02</t>
-  </si>
-  <si>
-    <t>5.14400e+02</t>
-  </si>
-  <si>
-    <t>8.84052e+04</t>
-  </si>
-  <si>
-    <t>7.44500e+02</t>
-  </si>
-  <si>
-    <t>5.80000e+02</t>
-  </si>
-  <si>
-    <t>9.97417e+04</t>
-  </si>
-  <si>
-    <t>8.32100e+02</t>
-  </si>
-  <si>
-    <t>5.94000e+02</t>
-  </si>
-  <si>
-    <t>1.07605e+05</t>
-  </si>
-  <si>
-    <t>8.77200e+02</t>
-  </si>
-  <si>
-    <t>7.02900e+02</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>VectorSTL</t>
   </si>
@@ -252,7 +162,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$1</c:f>
+              <c:f>BreveExp!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -287,7 +197,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$2:$I$101</c:f>
+              <c:f>BreveExp!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -827,7 +737,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$1</c:f>
+              <c:f>BreveExp!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -862,7 +772,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$2:$J$101</c:f>
+              <c:f>BreveExp!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1402,7 +1312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$1</c:f>
+              <c:f>BreveExp!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1437,7 +1347,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$2:$K$101</c:f>
+              <c:f>BreveExp!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2002,7 +1912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$1</c:f>
+              <c:f>BreveExp!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2025,7 +1935,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$2:$I$101</c:f>
+              <c:f>BreveExp!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2344,7 +2254,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$1</c:f>
+              <c:f>BreveExp!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2367,7 +2277,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$2:$J$101</c:f>
+              <c:f>BreveExp!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2686,7 +2596,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$1</c:f>
+              <c:f>BreveExp!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2709,7 +2619,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$2:$K$101</c:f>
+              <c:f>BreveExp!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3323,7 +3233,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$M$1</c:f>
+              <c:f>BreveExp!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3358,7 +3268,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$M$2:$M$101</c:f>
+              <c:f>BreveExp!$M$2:$M$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3677,7 +3587,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$N$1</c:f>
+              <c:f>BreveExp!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3712,7 +3622,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$N$2:$N$101</c:f>
+              <c:f>BreveExp!$N$2:$N$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4031,7 +3941,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$O$1</c:f>
+              <c:f>BreveExp!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4066,7 +3976,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$O$2:$O$101</c:f>
+              <c:f>BreveExp!$O$2:$O$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4561,6 +4471,1887 @@
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Competencia entre MapaSTL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CR" baseline="0"/>
+              <a:t> y ArbolRojoNegro</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BreveExp!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MapaSTL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BreveExp!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>119.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>411.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>490.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>577.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>663.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>722.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>804.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>879.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>980.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1050.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1126.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1448.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1271.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1365.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1512.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1557.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1605.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1782.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1826.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1900.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2203.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2430.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2247.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2324.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2403.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2782.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3153.2200000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2962.56</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2695.56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3253.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3484.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3359.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3405.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3078.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3195.14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3213.5699999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3418.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3500.71</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3639.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3620.33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3645.33</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3736.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3946.17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4298.33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3841.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3979.8300000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4073.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4796.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5279.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5455.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4524.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4548.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4689.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4855.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4808.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5036.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7218</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5067.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4969</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5731.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5394.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5753.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5491</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5466</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5523</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5683.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5515.75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6616</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6359.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6146</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7354</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8539.67</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6324.33</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6526.33</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8421.67</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6287.33</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11581.300000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6546.67</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8791.67</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7036</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8029.33</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8591</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6688.67</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7298</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7295</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9077.33</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7371.67</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9130.33</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8744.33</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9199.33</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9572.67</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8964.33</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13347.3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7881</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8763.67</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9378.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB2A-4E08-AD85-D301A501143D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BreveExp!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ArbolRojoNegro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BreveExp!$K$2:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>389.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>447.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>474.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>552.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>576.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>657.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>698.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>761.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>996.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>880.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>921.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>983.09999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1030.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1137.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1182.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1273.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1311.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1511.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1563.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1474.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1546.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1594.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1897.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1928.89</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2047.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1851.78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2101.12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2407.12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2458.38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2259.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2159.29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2195.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2273.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2245.86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2286.14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2416</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2525.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2457.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2553.17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2584.8300000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2758.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2678.33</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2772.83</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2755.7999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3111.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3778.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3995.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7773.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3138.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3284.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3186.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3293</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3219</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5127</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3446.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3529</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3693.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3664.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4657</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3678.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3669.25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3848.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3925.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3891.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5306.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4130.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3989.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4859.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4849.67</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4263</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4454</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4959.67</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4347</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6488</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4295</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5191.67</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4791.33</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6247</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5387.67</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4547</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4918</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4987.33</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6587.67</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5069</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5661</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6759.67</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5993</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5990.33</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6262.3300000000008</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6766.33</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5311.67</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5622.67</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB2A-4E08-AD85-D301A501143D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468999248"/>
+        <c:axId val="468995088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="468999248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468995088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="468995088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468999248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Competencia entre contenedores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ExpA1!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>VectorSTL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MapaSTL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ArbolRojoNegro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExpA1!$H$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3100380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8878.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6046.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7247-4A27-87D0-EAE271C5D07C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="419671440"/>
+        <c:axId val="544805424"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="419671440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544805424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544805424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419671440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Competencia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CR" baseline="0"/>
+              <a:t> entre </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>MapaSTL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CR" baseline="0"/>
+              <a:t> y ArbolRojoNegro</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ExpA1!$I$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MapaSTL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArbolRojoNegro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ExpA1!$I$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8878.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6046.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F67-45CD-8A38-B49A04B7BF2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="539472720"/>
+        <c:axId val="539469392"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="539472720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539469392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539469392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539472720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4782,6 +6573,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7290,6 +9201,1461 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7471,6 +10837,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>748659</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>174606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>763128</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>32693</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C819491D-6403-C0DC-3399-0046D15CA211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C74DC4B-FF85-7900-39CC-3DE068D35D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA5B2A8-C949-825F-107C-C260768215AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7741,163 +11220,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A29EA66-8CBA-4A50-97E4-17991A919FB6}">
   <dimension ref="B1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="H13" zoomScale="62" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -8008,7 +11357,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I3:K66" si="4">POWER(10,C4)*B4</f>
+        <f t="shared" ref="I4:I66" si="4">POWER(10,C4)*B4</f>
         <v>27151.200000000001</v>
       </c>
       <c r="J4">
@@ -10780,7 +14129,7 @@
         <v>3</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:K101" si="5">POWER(10,C67)*B67</f>
+        <f t="shared" ref="I67:I101" si="5">POWER(10,C67)*B67</f>
         <v>703716</v>
       </c>
       <c r="J67">
@@ -12304,4 +15653,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60316FC-793A-40AE-911B-A64B314C78F1}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3.1003799999999999</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8.8788</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>6.0468000000000002</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f>POWER(10,B2)*A2</f>
+        <v>3100380</v>
+      </c>
+      <c r="I2">
+        <f>POWER(10,D2)*C2</f>
+        <v>8878.7999999999993</v>
+      </c>
+      <c r="J2">
+        <f>POWER(10,F2)*E2</f>
+        <v>6046.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>